--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H2">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I2">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J2">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.39436532957675</v>
+        <v>8.226432000000001</v>
       </c>
       <c r="N2">
-        <v>6.39436532957675</v>
+        <v>24.679296</v>
       </c>
       <c r="O2">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="P2">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="Q2">
-        <v>12.37777318212679</v>
+        <v>22.925675716992</v>
       </c>
       <c r="R2">
-        <v>12.37777318212679</v>
+        <v>206.331081452928</v>
       </c>
       <c r="S2">
-        <v>0.009154399488369918</v>
+        <v>0.01285292172758798</v>
       </c>
       <c r="T2">
-        <v>0.009154399488369918</v>
+        <v>0.01285292172758798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H3">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I3">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J3">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.1275680862786</v>
+        <v>20.15320433333333</v>
       </c>
       <c r="N3">
-        <v>20.1275680862786</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O3">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966515</v>
       </c>
       <c r="P3">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966514</v>
       </c>
       <c r="Q3">
-        <v>38.96156375792509</v>
+        <v>56.16357458546766</v>
       </c>
       <c r="R3">
-        <v>38.96156375792509</v>
+        <v>505.4721712692089</v>
       </c>
       <c r="S3">
-        <v>0.02881533811321281</v>
+        <v>0.03148723016933954</v>
       </c>
       <c r="T3">
-        <v>0.02881533811321281</v>
+        <v>0.03148723016933953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H4">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I4">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J4">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5469392598673</v>
+        <v>15.64009466666667</v>
       </c>
       <c r="N4">
-        <v>12.5469392598673</v>
+        <v>46.920284</v>
       </c>
       <c r="O4">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="P4">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="Q4">
-        <v>24.28750318193641</v>
+        <v>43.58630066000133</v>
       </c>
       <c r="R4">
-        <v>24.28750318193641</v>
+        <v>392.276705940012</v>
       </c>
       <c r="S4">
-        <v>0.01796264186061767</v>
+        <v>0.02443597814492758</v>
       </c>
       <c r="T4">
-        <v>0.01796264186061767</v>
+        <v>0.02443597814492758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H5">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I5">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J5">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.6329571539745</v>
+        <v>13.81253266666666</v>
       </c>
       <c r="N5">
-        <v>13.6329571539745</v>
+        <v>41.43759799999999</v>
       </c>
       <c r="O5">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="P5">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="Q5">
-        <v>26.38974202381373</v>
+        <v>38.49319422397932</v>
       </c>
       <c r="R5">
-        <v>26.38974202381373</v>
+        <v>346.4387480158139</v>
       </c>
       <c r="S5">
-        <v>0.01951742347564209</v>
+        <v>0.02158060763456365</v>
       </c>
       <c r="T5">
-        <v>0.01951742347564209</v>
+        <v>0.02158060763456365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H6">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I6">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J6">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.8540170636126</v>
+        <v>13.92712666666667</v>
       </c>
       <c r="N6">
-        <v>13.8540170636126</v>
+        <v>41.78138</v>
       </c>
       <c r="O6">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="P6">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="Q6">
-        <v>26.81765461249639</v>
+        <v>38.81254833559333</v>
       </c>
       <c r="R6">
-        <v>26.81765461249639</v>
+        <v>349.31293502034</v>
       </c>
       <c r="S6">
-        <v>0.01983390065819057</v>
+        <v>0.02175964852525007</v>
       </c>
       <c r="T6">
-        <v>0.01983390065819057</v>
+        <v>0.02175964852525007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H7">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I7">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J7">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.47160381452622</v>
+        <v>6.823240000000001</v>
       </c>
       <c r="N7">
-        <v>6.47160381452622</v>
+        <v>20.46972</v>
       </c>
       <c r="O7">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="P7">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="Q7">
-        <v>12.52728613585396</v>
+        <v>19.01521675244</v>
       </c>
       <c r="R7">
-        <v>12.52728613585396</v>
+        <v>171.13695077196</v>
       </c>
       <c r="S7">
-        <v>0.009264976834308125</v>
+        <v>0.01066058403552687</v>
       </c>
       <c r="T7">
-        <v>0.009264976834308125</v>
+        <v>0.01066058403552687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H8">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I8">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J8">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.39436532957675</v>
+        <v>8.226432000000001</v>
       </c>
       <c r="N8">
-        <v>6.39436532957675</v>
+        <v>24.679296</v>
       </c>
       <c r="O8">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="P8">
-        <v>0.08756111938179192</v>
+        <v>0.1046851189010213</v>
       </c>
       <c r="Q8">
-        <v>106.0146649737413</v>
+        <v>21.033116481792</v>
       </c>
       <c r="R8">
-        <v>106.0146649737413</v>
+        <v>189.298048336128</v>
       </c>
       <c r="S8">
-        <v>0.078406719893422</v>
+        <v>0.01179188797594941</v>
       </c>
       <c r="T8">
-        <v>0.078406719893422</v>
+        <v>0.01179188797594941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H9">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I9">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J9">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.1275680862786</v>
+        <v>20.15320433333333</v>
       </c>
       <c r="N9">
-        <v>20.1275680862786</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O9">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966515</v>
       </c>
       <c r="P9">
-        <v>0.2756164687550688</v>
+        <v>0.2564587650966514</v>
       </c>
       <c r="Q9">
-        <v>333.7027644531273</v>
+        <v>51.52716198521489</v>
       </c>
       <c r="R9">
-        <v>333.7027644531273</v>
+        <v>463.7444578669339</v>
       </c>
       <c r="S9">
-        <v>0.246801130641856</v>
+        <v>0.0288878979191811</v>
       </c>
       <c r="T9">
-        <v>0.246801130641856</v>
+        <v>0.02888789791918109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H10">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I10">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J10">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5469392598673</v>
+        <v>15.64009466666667</v>
       </c>
       <c r="N10">
-        <v>12.5469392598673</v>
+        <v>46.920284</v>
       </c>
       <c r="O10">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="P10">
-        <v>0.1718112728604532</v>
+        <v>0.1990273753922999</v>
       </c>
       <c r="Q10">
-        <v>208.0205764797549</v>
+        <v>39.98816654781245</v>
       </c>
       <c r="R10">
-        <v>208.0205764797549</v>
+        <v>359.893498930312</v>
       </c>
       <c r="S10">
-        <v>0.1538486309998355</v>
+        <v>0.02241874049923188</v>
       </c>
       <c r="T10">
-        <v>0.1538486309998355</v>
+        <v>0.02241874049923188</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H11">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I11">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J11">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.6329571539745</v>
+        <v>13.81253266666666</v>
       </c>
       <c r="N11">
-        <v>13.6329571539745</v>
+        <v>41.43759799999999</v>
       </c>
       <c r="O11">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="P11">
-        <v>0.1866826381290024</v>
+        <v>0.1757708110313487</v>
       </c>
       <c r="Q11">
-        <v>226.0260887182751</v>
+        <v>35.31550597957377</v>
       </c>
       <c r="R11">
-        <v>226.0260887182751</v>
+        <v>317.839553816164</v>
       </c>
       <c r="S11">
-        <v>0.1671652146533603</v>
+        <v>0.01979908639243296</v>
       </c>
       <c r="T11">
-        <v>0.1671652146533603</v>
+        <v>0.01979908639243295</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H12">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I12">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J12">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.8540170636126</v>
+        <v>13.92712666666667</v>
       </c>
       <c r="N12">
-        <v>13.8540170636126</v>
+        <v>41.78138</v>
       </c>
       <c r="O12">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="P12">
-        <v>0.189709717775018</v>
+        <v>0.1772290722210533</v>
       </c>
       <c r="Q12">
-        <v>229.691126771545</v>
+        <v>35.60849678653778</v>
       </c>
       <c r="R12">
-        <v>229.691126771545</v>
+        <v>320.47647107884</v>
       </c>
       <c r="S12">
-        <v>0.1698758171168274</v>
+        <v>0.01996334710846586</v>
       </c>
       <c r="T12">
-        <v>0.1698758171168274</v>
+        <v>0.01996334710846585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H13">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I13">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J13">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.47160381452622</v>
+        <v>6.823240000000001</v>
       </c>
       <c r="N13">
-        <v>6.47160381452622</v>
+        <v>20.46972</v>
       </c>
       <c r="O13">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="P13">
-        <v>0.08861878309866575</v>
+        <v>0.08682885735762533</v>
       </c>
       <c r="Q13">
-        <v>107.2952317982739</v>
+        <v>17.44547353010667</v>
       </c>
       <c r="R13">
-        <v>107.2952317982739</v>
+        <v>157.00926177096</v>
       </c>
       <c r="S13">
-        <v>0.07935380626435763</v>
+        <v>0.009780532035397246</v>
       </c>
       <c r="T13">
-        <v>0.07935380626435763</v>
+        <v>0.009780532035397244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H14">
+        <v>52.06415</v>
+      </c>
+      <c r="I14">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J14">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.226432000000001</v>
+      </c>
+      <c r="N14">
+        <v>24.679296</v>
+      </c>
+      <c r="O14">
+        <v>0.1046851189010213</v>
+      </c>
+      <c r="P14">
+        <v>0.1046851189010213</v>
+      </c>
+      <c r="Q14">
+        <v>142.7673965376</v>
+      </c>
+      <c r="R14">
+        <v>1284.9065688384</v>
+      </c>
+      <c r="S14">
+        <v>0.08004030919748389</v>
+      </c>
+      <c r="T14">
+        <v>0.08004030919748389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H15">
+        <v>52.06415</v>
+      </c>
+      <c r="I15">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J15">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>20.15320433333333</v>
+      </c>
+      <c r="N15">
+        <v>60.45961299999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2564587650966515</v>
+      </c>
+      <c r="P15">
+        <v>0.2564587650966514</v>
+      </c>
+      <c r="Q15">
+        <v>349.7531511304388</v>
+      </c>
+      <c r="R15">
+        <v>3147.778360173949</v>
+      </c>
+      <c r="S15">
+        <v>0.1960836370081309</v>
+      </c>
+      <c r="T15">
+        <v>0.1960836370081308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H16">
+        <v>52.06415</v>
+      </c>
+      <c r="I16">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J16">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.64009466666667</v>
+      </c>
+      <c r="N16">
+        <v>46.920284</v>
+      </c>
+      <c r="O16">
+        <v>0.1990273753922999</v>
+      </c>
+      <c r="P16">
+        <v>0.1990273753922999</v>
+      </c>
+      <c r="Q16">
+        <v>271.4294115798444</v>
+      </c>
+      <c r="R16">
+        <v>2442.8647042186</v>
+      </c>
+      <c r="S16">
+        <v>0.1521726567481405</v>
+      </c>
+      <c r="T16">
+        <v>0.1521726567481405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H17">
+        <v>52.06415</v>
+      </c>
+      <c r="I17">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J17">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.81253266666666</v>
+      </c>
+      <c r="N17">
+        <v>41.43759799999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1757708110313487</v>
+      </c>
+      <c r="P17">
+        <v>0.1757708110313487</v>
+      </c>
+      <c r="Q17">
+        <v>239.7125908790777</v>
+      </c>
+      <c r="R17">
+        <v>2157.4133179117</v>
+      </c>
+      <c r="S17">
+        <v>0.1343911170043521</v>
+      </c>
+      <c r="T17">
+        <v>0.1343911170043521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H18">
+        <v>52.06415</v>
+      </c>
+      <c r="I18">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J18">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.92712666666667</v>
+      </c>
+      <c r="N18">
+        <v>41.78138</v>
+      </c>
+      <c r="O18">
+        <v>0.1772290722210533</v>
+      </c>
+      <c r="P18">
+        <v>0.1772290722210533</v>
+      </c>
+      <c r="Q18">
+        <v>241.7013372807778</v>
+      </c>
+      <c r="R18">
+        <v>2175.312035527</v>
+      </c>
+      <c r="S18">
+        <v>0.1355060765873374</v>
+      </c>
+      <c r="T18">
+        <v>0.1355060765873374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H19">
+        <v>52.06415</v>
+      </c>
+      <c r="I19">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J19">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.823240000000001</v>
+      </c>
+      <c r="N19">
+        <v>20.46972</v>
+      </c>
+      <c r="O19">
+        <v>0.08682885735762533</v>
+      </c>
+      <c r="P19">
+        <v>0.08682885735762533</v>
+      </c>
+      <c r="Q19">
+        <v>118.4153969486667</v>
+      </c>
+      <c r="R19">
+        <v>1065.738572538</v>
+      </c>
+      <c r="S19">
+        <v>0.0663877412867012</v>
+      </c>
+      <c r="T19">
+        <v>0.0663877412867012</v>
       </c>
     </row>
   </sheetData>
